--- a/ems/src/main/webapp/excel/template/工资明细模板表.xlsx
+++ b/ems/src/main/webapp/excel/template/工资明细模板表.xlsx
@@ -166,7 +166,7 @@
 }</t>
   </si>
   <si>
-    <t>${item.payTaxes
+    <t>${item.payTaxesString
 }</t>
   </si>
   <si>
